--- a/real_data/resnet101_MNIST.xlsx
+++ b/real_data/resnet101_MNIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B257F8-7B6A-2D47-9EB1-420CF8C67EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FC29E5-7CF0-D04C-B0FA-3C1D86884ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="4220" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{7935258D-7BA1-BE4D-B533-9C0418764F7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{7935258D-7BA1-BE4D-B533-9C0418764F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3ECEB3-F06F-004D-B5F3-5A36A880D2D3}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:A38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1674,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCCCD9C-B55F-B540-99FD-13E476D49529}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="A1:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,10 +1700,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>786.30769230769226</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1726,10 +1722,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>955.19230769230774</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1702.1538461538462</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1748,10 +1744,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1097.794117647059</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1266.610859728507</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2045,13 +2041,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>3730.7692307692309</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>30293.538461538461</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>319.99450549450546</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2066,14 +2062,14 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
+      <c r="A36">
+        <v>11.076923076923077</v>
+      </c>
+      <c r="B36">
+        <v>17.923076923076923</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1.9285714285714286</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
